--- a/backend/results/Munjal/monthly_rejection_Broken Mould.xlsx
+++ b/backend/results/Munjal/monthly_rejection_Broken Mould.xlsx
@@ -417,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>73140</v>
+        <v>403292</v>
       </c>
       <c r="D2">
-        <v>0.002734481815695926</v>
+        <v>0.001735715065014927</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>67737</v>
+        <v>337966</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0124272855849405</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>71550</v>
+        <v>306230</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.001959311628514515</v>
       </c>
     </row>
   </sheetData>

--- a/backend/results/Munjal/monthly_rejection_Broken Mould.xlsx
+++ b/backend/results/Munjal/monthly_rejection_Broken Mould.xlsx
@@ -417,13 +417,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>403292</v>
+        <v>73140</v>
       </c>
       <c r="D2">
-        <v>0.001735715065014927</v>
+        <v>0.002734481815695926</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>337966</v>
+        <v>67737</v>
       </c>
       <c r="D3">
-        <v>0.0124272855849405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>306230</v>
+        <v>71550</v>
       </c>
       <c r="D4">
-        <v>0.001959311628514515</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
